--- a/input_files/ois_2021_10_14.xlsx
+++ b/input_files/ois_2021_10_14.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2BE9A-AAB9-42B7-8187-685121639AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A741536-B56C-411D-93D8-A6091637BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjMg/pCUBDVMpG+fAT4k3+6uv+jjA=="/>
     </ext>
@@ -25,12 +36,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>months</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>quotes</t>
+  </si>
+  <si>
+    <t>maturities</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>30M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>96M</t>
+  </si>
+  <si>
+    <t>108M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>132M</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>180M</t>
+  </si>
+  <si>
+    <t>240M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>360M</t>
+  </si>
+  <si>
+    <t>420M</t>
+  </si>
+  <si>
+    <t>480M</t>
+  </si>
+  <si>
+    <t>600M</t>
   </si>
 </sst>
 </file>
@@ -297,7 +401,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -307,15 +411,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>-0.48460000000000003</v>
@@ -323,8 +427,8 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>-0.48419999999999996</v>
@@ -332,8 +436,8 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>-0.48450000000000004</v>
@@ -341,8 +445,8 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>-0.48399999999999999</v>
@@ -350,8 +454,8 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>-0.48350000000000004</v>
@@ -359,8 +463,8 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>-0.48230000000000001</v>
@@ -368,8 +472,8 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>-0.48089999999999999</v>
@@ -377,8 +481,8 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>-0.47919999999999996</v>
@@ -386,8 +490,8 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>-0.476995</v>
@@ -395,8 +499,8 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>-0.47420000000000001</v>
@@ -404,8 +508,8 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>-0.47120000000000001</v>
@@ -413,8 +517,8 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>-0.45750000000000002</v>
@@ -422,8 +526,8 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>18</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>-0.44420000000000004</v>
@@ -431,8 +535,8 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>30</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>-0.35099999999999998</v>
@@ -440,8 +544,8 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>36</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>-0.334005</v>
@@ -449,8 +553,8 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>48</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>-0.2616</v>
@@ -458,8 +562,8 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>60</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>-0.19400000000000001</v>
@@ -467,8 +571,8 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>72</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>-0.1263</v>
@@ -476,8 +580,8 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>84</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>-6.0600000000000001E-2</v>
@@ -485,8 +589,8 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>96</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>3.3E-3</v>
@@ -494,8 +598,8 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>108</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>6.6299999999999998E-2</v>
@@ -503,8 +607,8 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>120</v>
+      <c r="A23" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0.125</v>
@@ -512,8 +616,8 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>132</v>
+      <c r="A24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0.17825000000000002</v>
@@ -521,8 +625,8 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>144</v>
+      <c r="A25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.22839999999999999</v>
@@ -530,8 +634,8 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>180</v>
+      <c r="A26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.35199999999999998</v>
@@ -539,8 +643,8 @@
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>240</v>
+      <c r="A27" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.44850000000000001</v>
@@ -548,8 +652,8 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>300</v>
+      <c r="A28" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.46040000000000003</v>
@@ -557,8 +661,8 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>360</v>
+      <c r="A29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.43225000000000002</v>
@@ -566,8 +670,8 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>420</v>
+      <c r="A30" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.40284999999999999</v>
@@ -575,8 +679,8 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>480</v>
+      <c r="A31" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0.37414999999999998</v>
@@ -584,8 +688,8 @@
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>600</v>
+      <c r="A32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>0.3221</v>
